--- a/medicine/Enfance/Paul_Echegoyen/Paul_Echegoyen.xlsx
+++ b/medicine/Enfance/Paul_Echegoyen/Paul_Echegoyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Echegoyen est un illustrateur français né le 8 février 1981 à Tarbes.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,17 +553,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Le bal des échassiers, Éditions Seuil Jeunesse (2011).
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le bal des échassiers, Éditions Seuil Jeunesse (2011).
 Babayaga, Éditions du Seuil Jeunesse (2013)
 La légende de Momotaro, Éditions Marmaille et compagnie (2016).
 Les Dimanches de Romulus, Éditions Marmaille et compagnie (2016).
-La fille des quatre vents, Editions Galimard Jeunesse (2023)
-Bande dessinée
-Léonard &amp; Salaï [1], tome 1, Édition Soleil (2014), pré-publication en mars 2014 dans Le Monde [2]
-Les voyages de Gulliver : De Laputa au Japon [3], scénario de Bertrand Galic, Édition Soleil (2020)[4]
-Illustration
-Dada, n°197, édition Arola (2015) (illustrations en hommage à l'œuvre du réalisateur Hayao Myazaki).
+La fille des quatre vents, Editions Galimard Jeunesse (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_Echegoyen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Echegoyen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Léonard &amp; Salaï , tome 1, Édition Soleil (2014), pré-publication en mars 2014 dans Le Monde 
+Les voyages de Gulliver : De Laputa au Japon , scénario de Bertrand Galic, Édition Soleil (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_Echegoyen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_Echegoyen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dada, n°197, édition Arola (2015) (illustrations en hommage à l'œuvre du réalisateur Hayao Myazaki).
 Dada,  n°248, édition Arola (2020) (Illustrations en hommage au réalisateur Méliès )
 Artbook 5,6,7 et 8, Éditions CFSL INK (2011 à 2016) (illustrations extraites d'albums jeunesse).
 Magnitude 9, Éditions CFSL INK(2012) (illustration en faveur des victimes du tsunami).
